--- a/medicine/Pharmacie/Pramlintide/Pramlintide.xlsx
+++ b/medicine/Pharmacie/Pramlintide/Pramlintide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pramlintide (nom commercial Symlin) est un médicament injectable, analogue à l'amyline, pour le traitement du diabète (de type 1 et 2), développé par Amylin Pharmaceuticals (depuis 2014 une filiale en propriété exclusive d'AstraZeneca)[2]. Le pramlintide est commercialisé sous forme de sel d'acétate.
+Le pramlintide (nom commercial Symlin) est un médicament injectable, analogue à l'amyline, pour le traitement du diabète (de type 1 et 2), développé par Amylin Pharmaceuticals (depuis 2014 une filiale en propriété exclusive d'AstraZeneca). Le pramlintide est commercialisé sous forme de sel d'acétate.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pramlintide est un analogue de l'amyline, une petite hormone peptidique qui est libérée dans la circulation sanguine par les cellules β du pancréas avec l'insuline après le repas[3]. Comme l'insuline, l'amyline est totalement absente chez les personnes atteintes de diabète de type I[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pramlintide est un analogue de l'amyline, une petite hormone peptidique qui est libérée dans la circulation sanguine par les cellules β du pancréas avec l'insuline après le repas. Comme l'insuline, l'amyline est totalement absente chez les personnes atteintes de diabète de type I.
 En synergie avec l'amyline endogène, le pramlintide aide à réguler la glycémie en ralentissant la vidange gastrique, en favorisant la satiété via les récepteurs hypothalamiques (récepteurs différents de ceux du GLP-1), et en inhibant la sécrétion inappropriée de glucagon. Le pramlintide a également pour effet d'augmenter le seuil de réponse insulinique aiguë de première phase après un repas.
-Une réduction du taux d'hémoglobine glyquée et une perte de poids ont été observées chez des patients diabétiques de type 2 traités par insuline prenant le pramlintide en traitement d'appoint[5].
+Une réduction du taux d'hémoglobine glyquée et une perte de poids ont été observées chez des patients diabétiques de type 2 traités par insuline prenant le pramlintide en traitement d'appoint.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Approbation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux États-Unis, le pramlintide a été approuvé par la FDA pour une utilisation par les patients diabétiques de type 1 et de type 2 qui utilisent de l'insuline[6]. Le pramlintide permet aux patients d'utiliser moins d'insuline, d'abaisser la glycémie moyenne et de réduire considérablement ce qui serait autrement une importante augmentation malsaine de la glycémie qui se produit chez les diabétiques juste après avoir mangé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, le pramlintide a été approuvé par la FDA pour une utilisation par les patients diabétiques de type 1 et de type 2 qui utilisent de l'insuline. Le pramlintide permet aux patients d'utiliser moins d'insuline, d'abaisser la glycémie moyenne et de réduire considérablement ce qui serait autrement une importante augmentation malsaine de la glycémie qui se produit chez les diabétiques juste après avoir mangé.
 En dehors des analogues de l'insuline, le pramlintide est le seul médicament approuvé par la FDA pour abaisser la glycémie chez les diabétiques de type 1 depuis l'avènement de l'insuline au début des années 1920.
 </t>
         </is>
@@ -577,9 +593,11 @@
           <t>Conception et structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'amyline humaine native étant hautement amyloïdogène et potentiellement toxique, la stratégie de conception du pramlintide consistait à substituer des résidus d'amyline de rat, qui est moins amyloïdogène mais pas complètement[7],[8] (mais conserverait vraisemblablement une activité clinique). Les résidus de proline sont connus pour être des résidus de rupture de structure, ils ont donc été directement greffés dans la séquence humaine. Malgré sa stabilité améliorée par rapport à l'amyline humaine, le pramlintide est toujours capable de s'organiser en matière amyloïde[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amyline humaine native étant hautement amyloïdogène et potentiellement toxique, la stratégie de conception du pramlintide consistait à substituer des résidus d'amyline de rat, qui est moins amyloïdogène mais pas complètement, (mais conserverait vraisemblablement une activité clinique). Les résidus de proline sont connus pour être des résidus de rupture de structure, ils ont donc été directement greffés dans la séquence humaine. Malgré sa stabilité améliorée par rapport à l'amyline humaine, le pramlintide est toujours capable de s'organiser en matière amyloïde.
 Séquences d'acides aminés :
 </t>
         </is>
